--- a/client/Client_Home/wwwroot/uploaded_doc/Employ.xlsx
+++ b/client/Client_Home/wwwroot/uploaded_doc/Employ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A5879D-9EA1-468F-9B4B-85292EB29D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B603AC69-ECFB-4A2A-809D-D1D0BEB007AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{96698596-64FD-4C09-87AE-3052942D34E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>UserID</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>tanthinh@gmail.com</t>
+  </si>
+  <si>
+    <t>2342-3452</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +503,9 @@
       <c r="F2" s="1">
         <v>37785</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
